--- a/biology/Botanique/Gentiane_de_Clusius/Gentiane_de_Clusius.xlsx
+++ b/biology/Botanique/Gentiane_de_Clusius/Gentiane_de_Clusius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gentiane de Clusius ou Gentiane de L'Écluse (Gentiana clusii) est une plante herbacée vivace de la famille des Gentianaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse, en touffe, de prés et de pelouses sur des massifs calcaires jusqu'à 2 800 m d'altitude. Ses feuilles sont surtout basales ; ses fleurs solitaires, en trompette, bleues, ne s'ouvrent que par temps chaud et ensoleillé.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Type d'inflorescence : fleur solitaire terminale
@@ -582,7 +598,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana clusii Perrier &amp; Songeon subsp. clusii des pelouses basophiles subalpines, alpiennes, mésohydriques
 Gentiana clusii Perrier &amp; Songeon subsp. pyrenaica Vivant des pelouses basophiles subalpines, pyrénéennes, mésohydriques
